--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
   <si>
     <t>Id</t>
   </si>
@@ -60,6 +60,12 @@
     <t>美术资源</t>
   </si>
   <si>
+    <t>简介</t>
+  </si>
+  <si>
+    <t>攻击类型</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -84,6 +90,12 @@
     <t>ResourceCode</t>
   </si>
   <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -99,7 +111,7 @@
     <t>Tower11</t>
   </si>
   <si>
-    <t>3,0</t>
+    <t>8,0</t>
   </si>
   <si>
     <t>神射手</t>
@@ -108,7 +120,7 @@
     <t>Tower12</t>
   </si>
   <si>
-    <t>4,0</t>
+    <t>10,0</t>
   </si>
   <si>
     <t>精灵弓箭</t>
@@ -117,7 +129,7 @@
     <t>Tower13</t>
   </si>
   <si>
-    <t>5,0</t>
+    <t>12,0</t>
   </si>
   <si>
     <t>范围塔1</t>
@@ -132,15 +144,9 @@
     <t>Tower22</t>
   </si>
   <si>
-    <t>16,0</t>
-  </si>
-  <si>
     <t>Tower23</t>
   </si>
   <si>
-    <t>66,0</t>
-  </si>
-  <si>
     <t>激光塔1</t>
   </si>
   <si>
@@ -174,34 +180,25 @@
     <t>Tower41</t>
   </si>
   <si>
-    <t>8,0</t>
-  </si>
-  <si>
     <t>燃烧塔2</t>
   </si>
   <si>
     <t>Tower42</t>
   </si>
   <si>
-    <t>20,0</t>
-  </si>
-  <si>
     <t>燃烧塔3</t>
   </si>
   <si>
     <t>Tower43</t>
   </si>
   <si>
-    <t>30,0</t>
-  </si>
-  <si>
     <t>狙击塔1</t>
   </si>
   <si>
     <t>Tower51</t>
   </si>
   <si>
-    <t>10,0</t>
+    <t>15,0</t>
   </si>
   <si>
     <t>狙击塔2</t>
@@ -234,13 +231,13 @@
     <t>Tower62</t>
   </si>
   <si>
-    <t>22,0</t>
-  </si>
-  <si>
     <t>炮弹塔3</t>
   </si>
   <si>
     <t>Tower63</t>
+  </si>
+  <si>
+    <t>14,0</t>
   </si>
   <si>
     <t>魔法塔1</t>
@@ -926,13 +923,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1286,21 +1286,21 @@
   <sheetPr/>
   <dimension ref="C3:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L20" sqref="L19:L20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="11.95" customWidth="1"/>
-    <col min="6" max="6" width="14.2416666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.8416666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.5583333333333" customWidth="1"/>
-    <col min="12" max="12" width="10.8916666666667" customWidth="1"/>
-    <col min="15" max="15" width="23.525" customWidth="1"/>
+    <col min="5" max="5" width="11.9083333333333" customWidth="1"/>
+    <col min="6" max="6" width="14.2666666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="11" max="11" width="14.1833333333333" customWidth="1"/>
+    <col min="12" max="12" width="10.9083333333333" customWidth="1"/>
+    <col min="15" max="15" width="23.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="16.5" spans="3:11">
+    <row r="3" ht="16.5" spans="3:13">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -1328,63 +1328,81 @@
       <c r="K3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" spans="3:11">
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="3:13">
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="3:11">
+        <v>18</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="3:13">
       <c r="C5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="3:15">
@@ -1392,13 +1410,13 @@
         <v>3001</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="G6">
         <v>690</v>
@@ -1412,20 +1430,26 @@
       <c r="J6">
         <v>1001</v>
       </c>
-      <c r="O6" s="4"/>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="O6" s="5"/>
     </row>
     <row r="7" spans="3:15">
       <c r="C7">
         <v>3002</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G7">
         <v>690</v>
@@ -1439,20 +1463,26 @@
       <c r="J7">
         <v>1001</v>
       </c>
-      <c r="O7" s="4"/>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="3:15">
       <c r="C8">
         <v>3003</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="G8">
         <v>690</v>
@@ -1466,20 +1496,26 @@
       <c r="J8">
         <v>1001</v>
       </c>
-      <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="3:10">
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="3:13">
       <c r="C9">
         <v>3004</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G9">
         <v>1600</v>
@@ -1493,19 +1529,25 @@
       <c r="J9">
         <v>1008</v>
       </c>
-    </row>
-    <row r="10" spans="3:10">
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13">
       <c r="C10">
         <v>3005</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="G10">
         <v>1600</v>
@@ -1519,19 +1561,25 @@
       <c r="J10">
         <v>1008</v>
       </c>
-    </row>
-    <row r="11" spans="3:10">
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13">
       <c r="C11">
         <v>3006</v>
       </c>
       <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
       </c>
       <c r="G11">
         <v>1600</v>
@@ -1545,48 +1593,60 @@
       <c r="J11">
         <v>1008</v>
       </c>
-    </row>
-    <row r="12" spans="3:10">
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13">
       <c r="C12">
         <v>3007</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G12">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="H12">
         <v>120</v>
       </c>
       <c r="I12">
-        <v>5000</v>
+        <v>2198</v>
       </c>
       <c r="J12">
         <v>1015</v>
       </c>
-    </row>
-    <row r="13" spans="3:10">
+      <c r="L12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13">
       <c r="C13">
         <v>3008</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G13">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="H13">
         <v>210</v>
@@ -1597,22 +1657,28 @@
       <c r="J13">
         <v>1015</v>
       </c>
-    </row>
-    <row r="14" spans="3:10">
+      <c r="L13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13">
       <c r="C14">
         <v>3009</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G14">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="H14">
         <v>310</v>
@@ -1622,6 +1688,12 @@
       </c>
       <c r="J14">
         <v>1015</v>
+      </c>
+      <c r="L14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="3:15">
@@ -1629,13 +1701,13 @@
         <v>3010</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="G15">
         <v>1600</v>
@@ -1649,20 +1721,26 @@
       <c r="J15">
         <v>1022</v>
       </c>
-      <c r="O15" s="4"/>
+      <c r="L15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5"/>
     </row>
     <row r="16" spans="3:15">
       <c r="C16">
         <v>3011</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" t="s">
         <v>50</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="G16">
         <v>1600</v>
@@ -1676,7 +1754,13 @@
       <c r="J16">
         <v>1022</v>
       </c>
-      <c r="O16" s="4"/>
+      <c r="L16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5"/>
     </row>
     <row r="17" spans="3:15">
       <c r="C17">
@@ -1688,8 +1772,8 @@
       <c r="E17" t="s">
         <v>52</v>
       </c>
-      <c r="F17" t="s">
-        <v>53</v>
+      <c r="F17" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G17">
         <v>1600</v>
@@ -1703,20 +1787,26 @@
       <c r="J17">
         <v>1022</v>
       </c>
-      <c r="O17" s="4"/>
+      <c r="L17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="O17" s="5"/>
     </row>
     <row r="18" spans="3:15">
       <c r="C18">
         <v>3013</v>
       </c>
       <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
         <v>54</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
       </c>
       <c r="G18">
         <v>2690</v>
@@ -1727,20 +1817,23 @@
       <c r="I18">
         <v>2323</v>
       </c>
-      <c r="O18" s="4"/>
+      <c r="L18" t="s">
+        <v>53</v>
+      </c>
+      <c r="O18" s="5"/>
     </row>
     <row r="19" spans="3:15">
       <c r="C19">
         <v>3014</v>
       </c>
       <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
         <v>57</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>58</v>
-      </c>
-      <c r="F19" t="s">
-        <v>59</v>
       </c>
       <c r="G19">
         <v>2690</v>
@@ -1751,20 +1844,23 @@
       <c r="I19">
         <v>3724</v>
       </c>
-      <c r="O19" s="4"/>
+      <c r="L19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" s="5"/>
     </row>
     <row r="20" spans="3:15">
       <c r="C20">
         <v>3015</v>
       </c>
       <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
         <v>60</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>61</v>
-      </c>
-      <c r="F20" t="s">
-        <v>62</v>
       </c>
       <c r="G20">
         <v>2690</v>
@@ -1775,20 +1871,23 @@
       <c r="I20">
         <v>2759</v>
       </c>
-      <c r="O20" s="4"/>
-    </row>
-    <row r="21" spans="3:9">
+      <c r="L20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="3:12">
       <c r="C21">
         <v>3016</v>
       </c>
       <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
         <v>63</v>
       </c>
-      <c r="E21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" t="s">
-        <v>56</v>
+      <c r="F21" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="G21">
         <v>1600</v>
@@ -1799,19 +1898,22 @@
       <c r="I21">
         <v>2198</v>
       </c>
-    </row>
-    <row r="22" spans="3:9">
+      <c r="L21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12">
       <c r="C22">
         <v>3017</v>
       </c>
       <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
         <v>65</v>
       </c>
-      <c r="E22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" t="s">
-        <v>67</v>
+      <c r="F22" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="G22">
         <v>1600</v>
@@ -1822,19 +1924,22 @@
       <c r="I22">
         <v>2323</v>
       </c>
-    </row>
-    <row r="23" spans="3:9">
+      <c r="L22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12">
       <c r="C23">
         <v>3018</v>
       </c>
       <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="E23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" t="s">
-        <v>35</v>
       </c>
       <c r="G23">
         <v>1600</v>
@@ -1845,22 +1950,25 @@
       <c r="I23">
         <v>2416</v>
       </c>
-    </row>
-    <row r="24" spans="3:9">
+      <c r="L23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12">
       <c r="C24">
         <v>3019</v>
       </c>
       <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" t="s">
         <v>70</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>71</v>
       </c>
-      <c r="F24" t="s">
-        <v>72</v>
-      </c>
       <c r="G24">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="H24">
         <v>120</v>
@@ -1868,22 +1976,25 @@
       <c r="I24">
         <v>2370</v>
       </c>
-    </row>
-    <row r="25" spans="3:9">
+      <c r="L24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12">
       <c r="C25">
         <v>3020</v>
       </c>
       <c r="D25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" t="s">
         <v>73</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>74</v>
       </c>
-      <c r="F25" t="s">
-        <v>75</v>
-      </c>
       <c r="G25">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="H25">
         <v>210</v>
@@ -1891,28 +2002,34 @@
       <c r="I25">
         <v>2541</v>
       </c>
-    </row>
-    <row r="26" spans="3:9">
+      <c r="L25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12">
       <c r="C26">
         <v>3021</v>
       </c>
       <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
         <v>76</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>77</v>
       </c>
-      <c r="F26" t="s">
-        <v>78</v>
-      </c>
       <c r="G26">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="H26">
         <v>310</v>
       </c>
       <c r="I26">
         <v>2713</v>
+      </c>
+      <c r="L26" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="3:15">
@@ -1920,13 +2037,13 @@
         <v>3022</v>
       </c>
       <c r="D27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" t="s">
         <v>79</v>
       </c>
-      <c r="E27" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" t="s">
-        <v>47</v>
+      <c r="F27" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="G27">
         <v>1600</v>
@@ -1937,20 +2054,23 @@
       <c r="I27">
         <v>2713</v>
       </c>
-      <c r="O27" s="4"/>
+      <c r="L27" t="s">
+        <v>78</v>
+      </c>
+      <c r="O27" s="5"/>
     </row>
     <row r="28" spans="3:15">
       <c r="C28">
         <v>3023</v>
       </c>
       <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
         <v>81</v>
       </c>
-      <c r="E28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" t="s">
-        <v>50</v>
+      <c r="F28" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G28">
         <v>1600</v>
@@ -1961,20 +2081,23 @@
       <c r="I28">
         <v>2713</v>
       </c>
-      <c r="O28" s="4"/>
+      <c r="L28" t="s">
+        <v>80</v>
+      </c>
+      <c r="O28" s="5"/>
     </row>
     <row r="29" spans="3:15">
       <c r="C29">
         <v>3024</v>
       </c>
       <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" t="s">
         <v>83</v>
       </c>
-      <c r="E29" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" t="s">
-        <v>53</v>
+      <c r="F29" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="G29">
         <v>1600</v>
@@ -1985,7 +2108,10 @@
       <c r="I29">
         <v>2713</v>
       </c>
-      <c r="O29" s="4"/>
+      <c r="L29" t="s">
+        <v>82</v>
+      </c>
+      <c r="O29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="86">
   <si>
     <t>Id</t>
   </si>
@@ -63,7 +63,10 @@
     <t>简介</t>
   </si>
   <si>
-    <t>攻击类型</t>
+    <t>攻击类型（打天空地面）</t>
+  </si>
+  <si>
+    <t>是否为范围攻击(0不是，1是)</t>
   </si>
   <si>
     <t>Name</t>
@@ -94,6 +97,9 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>IsRangeAttack</t>
   </si>
   <si>
     <t>int</t>
@@ -1287,7 +1293,7 @@
   <dimension ref="C3:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1297,10 +1303,12 @@
     <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
     <col min="11" max="11" width="14.1833333333333" customWidth="1"/>
     <col min="12" max="12" width="10.9083333333333" customWidth="1"/>
+    <col min="13" max="13" width="20.5416666666667" customWidth="1"/>
+    <col min="14" max="14" width="22.9333333333333" customWidth="1"/>
     <col min="15" max="15" width="23.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="16.5" spans="3:13">
+    <row r="3" ht="16.5" spans="3:14">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -1334,75 +1342,84 @@
       <c r="M3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" spans="3:13">
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="3:14">
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="3:13">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="3:14">
       <c r="C5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="3:15">
@@ -1410,13 +1427,13 @@
         <v>3001</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6">
         <v>690</v>
@@ -1431,10 +1448,13 @@
         <v>1001</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M6">
         <v>2</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
       </c>
       <c r="O6" s="5"/>
     </row>
@@ -1443,13 +1463,13 @@
         <v>3002</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>690</v>
@@ -1458,16 +1478,19 @@
         <v>120</v>
       </c>
       <c r="I7">
-        <v>3724</v>
+        <v>2724</v>
       </c>
       <c r="J7">
         <v>1001</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M7">
         <v>2</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
       </c>
       <c r="O7" s="5"/>
     </row>
@@ -1476,13 +1499,13 @@
         <v>3003</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G8">
         <v>690</v>
@@ -1497,25 +1520,28 @@
         <v>1001</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M8">
         <v>2</v>
       </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="3:13">
+    <row r="9" spans="3:14">
       <c r="C9">
         <v>3004</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>1600</v>
@@ -1530,24 +1556,27 @@
         <v>1008</v>
       </c>
       <c r="L9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="3:13">
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14">
       <c r="C10">
         <v>3005</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>1600</v>
@@ -1562,24 +1591,27 @@
         <v>1008</v>
       </c>
       <c r="L10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="3:13">
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14">
       <c r="C11">
         <v>3006</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>1600</v>
@@ -1594,24 +1626,27 @@
         <v>1008</v>
       </c>
       <c r="L11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="3:13">
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14">
       <c r="C12">
         <v>3007</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G12">
         <v>320</v>
@@ -1626,24 +1661,27 @@
         <v>1015</v>
       </c>
       <c r="L12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="3:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14">
       <c r="C13">
         <v>3008</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G13">
         <v>320</v>
@@ -1658,24 +1696,27 @@
         <v>1015</v>
       </c>
       <c r="L13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="3:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14">
       <c r="C14">
         <v>3009</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G14">
         <v>320</v>
@@ -1690,10 +1731,13 @@
         <v>1015</v>
       </c>
       <c r="L14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M14">
         <v>2</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="3:15">
@@ -1701,13 +1745,13 @@
         <v>3010</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G15">
         <v>1600</v>
@@ -1722,9 +1766,12 @@
         <v>1022</v>
       </c>
       <c r="L15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
         <v>1</v>
       </c>
       <c r="O15" s="5"/>
@@ -1734,13 +1781,13 @@
         <v>3011</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G16">
         <v>1600</v>
@@ -1755,9 +1802,12 @@
         <v>1022</v>
       </c>
       <c r="L16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
         <v>1</v>
       </c>
       <c r="O16" s="5"/>
@@ -1767,13 +1817,13 @@
         <v>3012</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G17">
         <v>1600</v>
@@ -1788,9 +1838,12 @@
         <v>1022</v>
       </c>
       <c r="L17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
         <v>1</v>
       </c>
       <c r="O17" s="5"/>
@@ -1800,13 +1853,13 @@
         <v>3013</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G18">
         <v>2690</v>
@@ -1818,7 +1871,7 @@
         <v>2323</v>
       </c>
       <c r="L18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O18" s="5"/>
     </row>
@@ -1827,13 +1880,13 @@
         <v>3014</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G19">
         <v>2690</v>
@@ -1845,7 +1898,7 @@
         <v>3724</v>
       </c>
       <c r="L19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O19" s="5"/>
     </row>
@@ -1854,13 +1907,13 @@
         <v>3015</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G20">
         <v>2690</v>
@@ -1872,7 +1925,7 @@
         <v>2759</v>
       </c>
       <c r="L20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O20" s="5"/>
     </row>
@@ -1881,13 +1934,13 @@
         <v>3016</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G21">
         <v>1600</v>
@@ -1899,7 +1952,7 @@
         <v>2198</v>
       </c>
       <c r="L21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="3:12">
@@ -1907,13 +1960,13 @@
         <v>3017</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G22">
         <v>1600</v>
@@ -1925,7 +1978,7 @@
         <v>2323</v>
       </c>
       <c r="L22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="3:12">
@@ -1933,13 +1986,13 @@
         <v>3018</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>1600</v>
@@ -1951,7 +2004,7 @@
         <v>2416</v>
       </c>
       <c r="L23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="3:12">
@@ -1959,13 +2012,13 @@
         <v>3019</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G24">
         <v>320</v>
@@ -1977,7 +2030,7 @@
         <v>2370</v>
       </c>
       <c r="L24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="3:12">
@@ -1985,13 +2038,13 @@
         <v>3020</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G25">
         <v>320</v>
@@ -2003,7 +2056,7 @@
         <v>2541</v>
       </c>
       <c r="L25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="3:12">
@@ -2011,13 +2064,13 @@
         <v>3021</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G26">
         <v>320</v>
@@ -2029,7 +2082,7 @@
         <v>2713</v>
       </c>
       <c r="L26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="3:15">
@@ -2037,13 +2090,13 @@
         <v>3022</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G27">
         <v>1600</v>
@@ -2055,7 +2108,7 @@
         <v>2713</v>
       </c>
       <c r="L27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O27" s="5"/>
     </row>
@@ -2064,13 +2117,13 @@
         <v>3023</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G28">
         <v>1600</v>
@@ -2082,7 +2135,7 @@
         <v>2713</v>
       </c>
       <c r="L28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O28" s="5"/>
     </row>
@@ -2091,13 +2144,13 @@
         <v>3024</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G29">
         <v>1600</v>
@@ -2109,7 +2162,7 @@
         <v>2713</v>
       </c>
       <c r="L29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O29" s="5"/>
     </row>

--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
   <si>
     <t>Id</t>
   </si>
@@ -120,6 +120,9 @@
     <t>8,0</t>
   </si>
   <si>
+    <t>Tower11Bg</t>
+  </si>
+  <si>
     <t>神射手</t>
   </si>
   <si>
@@ -129,6 +132,9 @@
     <t>10,0</t>
   </si>
   <si>
+    <t>Tower12Bg</t>
+  </si>
+  <si>
     <t>精灵弓箭</t>
   </si>
   <si>
@@ -138,6 +144,9 @@
     <t>12,0</t>
   </si>
   <si>
+    <t>Tower13Bg</t>
+  </si>
+  <si>
     <t>范围塔1</t>
   </si>
   <si>
@@ -147,12 +156,21 @@
     <t>6,0</t>
   </si>
   <si>
+    <t>Tower21Bg</t>
+  </si>
+  <si>
     <t>Tower22</t>
   </si>
   <si>
+    <t>Tower22Bg</t>
+  </si>
+  <si>
     <t>Tower23</t>
   </si>
   <si>
+    <t>Tower23Bg</t>
+  </si>
+  <si>
     <t>激光塔1</t>
   </si>
   <si>
@@ -162,6 +180,9 @@
     <t>0,3</t>
   </si>
   <si>
+    <t>Tower31Bg</t>
+  </si>
+  <si>
     <t>激光塔2</t>
   </si>
   <si>
@@ -171,6 +192,9 @@
     <t>0,8</t>
   </si>
   <si>
+    <t>Tower32Bg</t>
+  </si>
+  <si>
     <t>激光塔3</t>
   </si>
   <si>
@@ -180,22 +204,34 @@
     <t>0,16</t>
   </si>
   <si>
+    <t>Tower33Bg</t>
+  </si>
+  <si>
     <t>燃烧塔1</t>
   </si>
   <si>
     <t>Tower41</t>
   </si>
   <si>
+    <t>Tower41Bg</t>
+  </si>
+  <si>
     <t>燃烧塔2</t>
   </si>
   <si>
     <t>Tower42</t>
   </si>
   <si>
+    <t>Tower42Bg</t>
+  </si>
+  <si>
     <t>燃烧塔3</t>
   </si>
   <si>
     <t>Tower43</t>
+  </si>
+  <si>
+    <t>Tower43Bg</t>
   </si>
   <si>
     <t>狙击塔1</t>
@@ -1293,7 +1329,7 @@
   <dimension ref="C3:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1447,6 +1483,9 @@
       <c r="J6">
         <v>1001</v>
       </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
       <c r="L6" t="s">
         <v>26</v>
       </c>
@@ -1463,13 +1502,13 @@
         <v>3002</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>690</v>
@@ -1483,8 +1522,11 @@
       <c r="J7">
         <v>1001</v>
       </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M7">
         <v>2</v>
@@ -1499,13 +1541,13 @@
         <v>3003</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <v>690</v>
@@ -1519,8 +1561,11 @@
       <c r="J8">
         <v>1001</v>
       </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M8">
         <v>2</v>
@@ -1535,13 +1580,13 @@
         <v>3004</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G9">
         <v>1600</v>
@@ -1555,8 +1600,11 @@
       <c r="J9">
         <v>1008</v>
       </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M9">
         <v>2</v>
@@ -1570,10 +1618,10 @@
         <v>3005</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>28</v>
@@ -1590,8 +1638,11 @@
       <c r="J10">
         <v>1008</v>
       </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M10">
         <v>2</v>
@@ -1605,13 +1656,13 @@
         <v>3006</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <v>1600</v>
@@ -1625,8 +1676,11 @@
       <c r="J11">
         <v>1008</v>
       </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M11">
         <v>2</v>
@@ -1640,13 +1694,13 @@
         <v>3007</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G12">
         <v>320</v>
@@ -1660,8 +1714,11 @@
       <c r="J12">
         <v>1015</v>
       </c>
+      <c r="K12" t="s">
+        <v>49</v>
+      </c>
       <c r="L12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M12">
         <v>2</v>
@@ -1675,13 +1732,13 @@
         <v>3008</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G13">
         <v>320</v>
@@ -1695,8 +1752,11 @@
       <c r="J13">
         <v>1015</v>
       </c>
+      <c r="K13" t="s">
+        <v>53</v>
+      </c>
       <c r="L13" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M13">
         <v>2</v>
@@ -1710,13 +1770,13 @@
         <v>3009</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G14">
         <v>320</v>
@@ -1730,8 +1790,11 @@
       <c r="J14">
         <v>1015</v>
       </c>
+      <c r="K14" t="s">
+        <v>57</v>
+      </c>
       <c r="L14" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M14">
         <v>2</v>
@@ -1745,13 +1808,13 @@
         <v>3010</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G15">
         <v>1600</v>
@@ -1765,8 +1828,11 @@
       <c r="J15">
         <v>1022</v>
       </c>
+      <c r="K15" t="s">
+        <v>60</v>
+      </c>
       <c r="L15" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1781,10 +1847,10 @@
         <v>3011</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>28</v>
@@ -1801,8 +1867,11 @@
       <c r="J16">
         <v>1022</v>
       </c>
+      <c r="K16" t="s">
+        <v>63</v>
+      </c>
       <c r="L16" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -1817,13 +1886,13 @@
         <v>3012</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17">
         <v>1600</v>
@@ -1837,8 +1906,11 @@
       <c r="J17">
         <v>1022</v>
       </c>
+      <c r="K17" t="s">
+        <v>66</v>
+      </c>
       <c r="L17" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -1853,13 +1925,13 @@
         <v>3013</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G18">
         <v>2690</v>
@@ -1871,7 +1943,7 @@
         <v>2323</v>
       </c>
       <c r="L18" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="O18" s="5"/>
     </row>
@@ -1880,13 +1952,13 @@
         <v>3014</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>2690</v>
@@ -1898,7 +1970,7 @@
         <v>3724</v>
       </c>
       <c r="L19" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="O19" s="5"/>
     </row>
@@ -1907,13 +1979,13 @@
         <v>3015</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G20">
         <v>2690</v>
@@ -1925,7 +1997,7 @@
         <v>2759</v>
       </c>
       <c r="L20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="O20" s="5"/>
     </row>
@@ -1934,10 +2006,10 @@
         <v>3016</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>28</v>
@@ -1952,7 +2024,7 @@
         <v>2198</v>
       </c>
       <c r="L21" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="3:12">
@@ -1960,13 +2032,13 @@
         <v>3017</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G22">
         <v>1600</v>
@@ -1978,7 +2050,7 @@
         <v>2323</v>
       </c>
       <c r="L22" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="3:12">
@@ -1986,13 +2058,13 @@
         <v>3018</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G23">
         <v>1600</v>
@@ -2004,7 +2076,7 @@
         <v>2416</v>
       </c>
       <c r="L23" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="3:12">
@@ -2012,13 +2084,13 @@
         <v>3019</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G24">
         <v>320</v>
@@ -2030,7 +2102,7 @@
         <v>2370</v>
       </c>
       <c r="L24" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="3:12">
@@ -2038,13 +2110,13 @@
         <v>3020</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G25">
         <v>320</v>
@@ -2056,7 +2128,7 @@
         <v>2541</v>
       </c>
       <c r="L25" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="3:12">
@@ -2064,13 +2136,13 @@
         <v>3021</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G26">
         <v>320</v>
@@ -2082,7 +2154,7 @@
         <v>2713</v>
       </c>
       <c r="L26" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="3:15">
@@ -2090,10 +2162,10 @@
         <v>3022</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>28</v>
@@ -2108,7 +2180,7 @@
         <v>2713</v>
       </c>
       <c r="L27" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="O27" s="5"/>
     </row>
@@ -2117,13 +2189,13 @@
         <v>3023</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>1600</v>
@@ -2135,7 +2207,7 @@
         <v>2713</v>
       </c>
       <c r="L28" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="O28" s="5"/>
     </row>
@@ -2144,13 +2216,13 @@
         <v>3024</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G29">
         <v>1600</v>
@@ -2162,7 +2234,7 @@
         <v>2713</v>
       </c>
       <c r="L29" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O29" s="5"/>
     </row>
